--- a/i_codebooks/D5_Table_1_Attrition_{ImmDis}.xlsx
+++ b/i_codebooks/D5_Table_1_Attrition_{ImmDis}.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="121">
   <si>
     <t>metadata_content</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>D_HEPATITISAUTOIMMUNE_AESI</t>
+  </si>
+  <si>
+    <t>Persons leaving the cohort during the first 90 days  after inclusion in the cohort of {ImmDis} (censoring)</t>
   </si>
 </sst>
 </file>
@@ -676,9 +679,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1058,11 +1061,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1294,7 +1297,7 @@
         <v>66</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1349,7 +1352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1583,13 +1586,13 @@
         <v>17</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="15.6">
@@ -1719,17 +1722,35 @@
         <v>25</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
@@ -1739,24 +1760,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/i_codebooks/D5_Table_1_Attrition_{ImmDis}.xlsx
+++ b/i_codebooks/D5_Table_1_Attrition_{ImmDis}.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="127">
   <si>
     <t>metadata_content</t>
   </si>
@@ -75,37 +75,7 @@
     <t>Sex or birth year missing or absurd or no dates of entry or exit</t>
   </si>
   <si>
-    <t>No first &lt;ImmDis&gt;  disease codes identified after 1 Jan 2017</t>
-  </si>
-  <si>
     <t>Total &lt;ImmDis&gt; cohort</t>
-  </si>
-  <si>
-    <t>n_1_BIFAP</t>
-  </si>
-  <si>
-    <t>n_2_BIFAP (p_2_BIFAP)</t>
-  </si>
-  <si>
-    <t>n_3_BIFAP (p_3_BIFAP)</t>
-  </si>
-  <si>
-    <t>n_4_BIFAP (p_4_BIFAP)</t>
-  </si>
-  <si>
-    <t>n_5_BIFAP (p_5_BIFAP)</t>
-  </si>
-  <si>
-    <t>n_6_BIFAP (p_6_BIFAP)</t>
-  </si>
-  <si>
-    <t>n_7_BIFAP (p_7_BIFAP)</t>
-  </si>
-  <si>
-    <t>n_8_BIFAP (p_8_BIFAP)</t>
-  </si>
-  <si>
-    <t>n_9_BIFAP (p_9_BIFAP)</t>
   </si>
   <si>
     <t>Varname</t>
@@ -265,24 +235,9 @@
     <t>data source name, as stored in CDM_SOURCE, plus possible specification of subpopulation</t>
   </si>
   <si>
-    <t>Persons who started the follow up 90 days after the cohort inclusion ({ImmDis} cohort entering follow-up)</t>
-  </si>
-  <si>
-    <t>No first {ImmDis}  disease codes identified after 1 Jan 2017</t>
-  </si>
-  <si>
-    <t>Less than 365 days look-back at first identification of {ImmDis}, for those not born in the study period</t>
-  </si>
-  <si>
     <t>Total {ImmDis} cohort</t>
   </si>
   <si>
-    <t>Persons vaccinated during the first 90 days after inclusion in the cohort of {ImmDis}</t>
-  </si>
-  <si>
-    <t>Persons leaving the cohort during the first 90 days  after  after inclusion in the cohort of {ImmDis} (censoring)</t>
-  </si>
-  <si>
     <t>round(100*n_2_/n_1_,.1)</t>
   </si>
   <si>
@@ -356,22 +311,6 @@
   </si>
   <si>
     <t>n_3 as a % of the total persons in the data instance</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">n_7 as a % of the total persons </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>in the {ImmDis} cohort</t>
-    </r>
   </si>
   <si>
     <r>
@@ -440,6 +379,85 @@
   </si>
   <si>
     <t>Persons leaving the cohort during the first 90 days  after inclusion in the cohort of {ImmDis} (censoring)</t>
+  </si>
+  <si>
+    <t>Sex or birth year missing or absurd or no dates of entry or exit, or incomplete date of death or birth, or observation period too short</t>
+  </si>
+  <si>
+    <t>n_2_ (p_2_)</t>
+  </si>
+  <si>
+    <t>n_3_ (p_3_)</t>
+  </si>
+  <si>
+    <t>n_4_ (p_4_)</t>
+  </si>
+  <si>
+    <t>Other criteria suggesting {ImmDis} is present during lookback</t>
+  </si>
+  <si>
+    <t>Persons who started the follow up 30-60-90 days after the cohort inclusion ({ImmDis} cohort entering follow-up)</t>
+  </si>
+  <si>
+    <t>Persons dying during the first 30-60-90 days after inclusion in the cohort of {ImmDis}, or before a delayed entrance (censoring)</t>
+  </si>
+  <si>
+    <t>Persons leaving alive the cohort during the first 30-60-90 days after inclusion in the cohort of {ImmDis}, or before a delayed entrance (censoring)</t>
+  </si>
+  <si>
+    <t>n_5_ (p_5_)</t>
+  </si>
+  <si>
+    <t>n_6_ (p_6_)</t>
+  </si>
+  <si>
+    <t>n_7_ (p_7_)</t>
+  </si>
+  <si>
+    <t>n_8_ (p_8_)</t>
+  </si>
+  <si>
+    <t>n_9_ (p_9_)</t>
+  </si>
+  <si>
+    <t>n_10_ (p_10_)</t>
+  </si>
+  <si>
+    <t>n_10_</t>
+  </si>
+  <si>
+    <t>p_10_</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n_10 as a % of the total persons </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in the {ImmDis} cohort</t>
+    </r>
+  </si>
+  <si>
+    <t>No {ImmDis} disease codes identified after study entry (earliest between 1 Jan 2017 and accrual of 365 days of observation)</t>
+  </si>
+  <si>
+    <t>n_4 as a % of the total persons in the data instance</t>
+  </si>
+  <si>
+    <t>{ImmDis} disease codes found during lookback</t>
+  </si>
+  <si>
+    <t>n_5 as a % of the total persons in the data instance</t>
+  </si>
+  <si>
+    <t>n_7 as a % of the total persons in the data instance</t>
   </si>
 </sst>
 </file>
@@ -631,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -679,9 +697,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -964,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -976,7 +995,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="13" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
@@ -984,36 +1003,36 @@
     </row>
     <row r="2" spans="1:2" ht="28.8">
       <c r="A2" s="14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2">
       <c r="A3" s="14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="14" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1021,7 +1040,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="14" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1029,26 +1048,26 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1059,13 +1078,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1086,50 +1105,50 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="158.4">
       <c r="A2" s="20" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="21" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
@@ -1142,40 +1161,40 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="19" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="28.8">
       <c r="A4" s="19" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="19" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="19" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>14</v>
@@ -1183,163 +1202,185 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="19" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="28.8">
       <c r="A8" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>76</v>
+        <v>50</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="19" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="28.8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="19" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="19" t="s">
-        <v>63</v>
+        <v>53</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>78</v>
+        <v>54</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>65</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="28.8">
-      <c r="A14" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="28.8">
       <c r="A16" s="19" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="19" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="28.8">
       <c r="A18" s="19" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="19" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>88</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="43.2">
+      <c r="A20" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1366,162 +1407,162 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="15" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1531,7 +1572,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -1539,7 +1580,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="115.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="137" customWidth="1"/>
     <col min="2" max="2" width="30.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1583,183 +1624,195 @@
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="15.6">
       <c r="A3" s="9" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="15.6">
       <c r="A4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
+        <v>107</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="15.6">
       <c r="A5" s="9" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="15.6">
       <c r="A6" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+        <v>124</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="15.6">
-      <c r="A7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="A7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:11" ht="15.6">
-      <c r="A8" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
       <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:11" ht="15.6">
       <c r="A9" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>24</v>
+        <v>111</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="15.6">
-      <c r="A10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="11"/>
+      <c r="A10" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="11"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
-      <c r="K10" s="12"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6">
+      <c r="A11" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="18">
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/i_codebooks/D5_Table_1_Attrition_{ImmDis}.xlsx
+++ b/i_codebooks/D5_Table_1_Attrition_{ImmDis}.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosgin2\Documents\ROC18_Objective_2\i_codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\ROC18_Objective_2\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEBDE59-5F54-460E-97BE-7380A21A0B7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="130">
   <si>
     <t>metadata_content</t>
   </si>
@@ -378,9 +379,6 @@
     <t>D_HEPATITISAUTOIMMUNE_AESI</t>
   </si>
   <si>
-    <t>Persons leaving the cohort during the first 90 days  after inclusion in the cohort of {ImmDis} (censoring)</t>
-  </si>
-  <si>
     <t>Sex or birth year missing or absurd or no dates of entry or exit, or incomplete date of death or birth, or observation period too short</t>
   </si>
   <si>
@@ -459,11 +457,23 @@
   <si>
     <t>n_7 as a % of the total persons in the data instance</t>
   </si>
+  <si>
+    <t>Persons who started the follow up</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>D3_cohort_{ImmDis}</t>
+  </si>
+  <si>
+    <t>n_1 - n_2 - n_3 - has_not_a_code_in_the_study_period_{ImmDis} == 0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -698,12 +708,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -980,16 +990,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1001,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8">
+    <row r="2" spans="1:2" ht="30">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
@@ -1009,7 +1019,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="43.2">
+    <row r="3" spans="1:2" ht="45">
       <c r="A3" s="14" t="s">
         <v>29</v>
       </c>
@@ -1077,30 +1087,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A21"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="19"/>
-    <col min="2" max="2" width="56.33203125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="19"/>
+    <col min="2" max="2" width="56.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.77734375" style="19" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="19"/>
+    <col min="9" max="9" width="9.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" style="19" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1139,7 +1149,7 @@
       </c>
       <c r="L1" s="18"/>
     </row>
-    <row r="2" spans="1:12" ht="158.4">
+    <row r="2" spans="1:12" ht="165">
       <c r="A2" s="20" t="s">
         <v>43</v>
       </c>
@@ -1167,12 +1177,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28.8">
+    <row r="4" spans="1:12" ht="45">
       <c r="A4" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1192,7 +1202,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" ht="30">
       <c r="A6" s="19" t="s">
         <v>48</v>
       </c>
@@ -1217,12 +1227,21 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="28.8">
+    <row r="8" spans="1:12" ht="45">
       <c r="A8" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1230,7 +1249,7 @@
         <v>51</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>47</v>
@@ -1247,7 +1266,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1255,7 +1274,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>47</v>
@@ -1267,12 +1286,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="30">
       <c r="A12" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1305,7 +1324,7 @@
         <v>61</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>47</v>
@@ -1317,12 +1336,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="28.8">
+    <row r="16" spans="1:12" ht="45">
       <c r="A16" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>104</v>
+      <c r="B16" s="24" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1339,10 +1358,10 @@
         <v>46</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="28.8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="45">
       <c r="A18" s="19" t="s">
         <v>58</v>
       </c>
@@ -1357,30 +1376,30 @@
       <c r="B19" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="43.2">
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>112</v>
+        <v>118</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>121</v>
+      <c r="C21" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1390,19 +1409,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1571,20 +1590,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="137" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1619,7 +1638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.6">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1627,21 +1646,21 @@
         <v>42</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="27"/>
@@ -1653,12 +1672,12 @@
       <c r="J3" s="27"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" ht="15.6">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -1670,12 +1689,12 @@
       <c r="J4" s="25"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="15.6">
+    <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="27"/>
@@ -1687,12 +1706,12 @@
       <c r="J5" s="27"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6">
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -1704,12 +1723,12 @@
       <c r="J6" s="25"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6">
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -1721,12 +1740,12 @@
       <c r="J7" s="25"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6">
+    <row r="8" spans="1:11" ht="15.75">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="27"/>
@@ -1738,12 +1757,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6">
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="27"/>
@@ -1755,12 +1774,12 @@
       <c r="J9" s="27"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -1772,35 +1791,32 @@
       <c r="J10" s="25"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:11" ht="15.6">
+    <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:11" ht="15.6">
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
@@ -1810,9 +1826,12 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1820,15 +1839,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="82.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="82.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/i_codebooks/D5_Table_1_Attrition_{ImmDis}.xlsx
+++ b/i_codebooks/D5_Table_1_Attrition_{ImmDis}.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\ROC18_Objective_2\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEBDE59-5F54-460E-97BE-7380A21A0B7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F885EC0A-2E6B-495B-8395-AB99B2577878}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="131">
   <si>
     <t>metadata_content</t>
   </si>
@@ -468,6 +468,9 @@
   </si>
   <si>
     <t>n_1 - n_2 - n_3 - has_not_a_code_in_the_study_period_{ImmDis} == 0</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
 </sst>
 </file>
@@ -708,9 +711,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1090,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
@@ -1202,7 +1205,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30">
+    <row r="6" spans="1:12">
       <c r="A6" s="19" t="s">
         <v>48</v>
       </c>
@@ -1286,7 +1289,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30">
+    <row r="12" spans="1:12">
       <c r="A12" s="19" t="s">
         <v>54</v>
       </c>
@@ -1646,13 +1649,13 @@
         <v>42</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="15.75">
@@ -1799,13 +1802,13 @@
         <v>117</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11" ht="15.75">
@@ -1814,6 +1817,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
@@ -1826,12 +1835,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1842,14 +1845,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="82.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
